--- a/ERP/src/main/resources/static/csv/주문등록(서식).xlsx
+++ b/ERP/src/main/resources/static/csv/주문등록(서식).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\ERP\ERP\src\main\resources\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89EF9E-3601-42C1-B24C-70527FB9C9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4EB91-E657-4C8F-A493-941802E29F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{B1E78168-0BFB-44FC-B684-775662FCF419}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B1E78168-0BFB-44FC-B684-775662FCF419}"/>
   </bookViews>
   <sheets>
     <sheet name="주문등록(서식)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>수취인</t>
   </si>
@@ -49,12 +49,6 @@
     <t>주문 날짜</t>
   </si>
   <si>
-    <t>배송 기한</t>
-  </si>
-  <si>
-    <t>배송 유형</t>
-  </si>
-  <si>
     <t>주문자 메모</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
   </si>
   <si>
     <t>여행용 반팔 미니 크로스백</t>
-  </si>
-  <si>
-    <t>Safe Koala</t>
   </si>
   <si>
     <t>부재 시 경비실에 맡겨주세요</t>
@@ -138,6 +129,14 @@
   </si>
   <si>
     <t>04064</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문갯수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자메모</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +738,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,241 +1121,233 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+      <c r="L1" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="1">
         <v>45539</v>
       </c>
-      <c r="J2" s="1">
-        <v>45547</v>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="1">
         <v>45539</v>
       </c>
-      <c r="J3" s="1">
-        <v>45547</v>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
       </c>
       <c r="I4" s="1">
         <v>45539</v>
       </c>
-      <c r="J4" s="1">
-        <v>45547</v>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>45539</v>
       </c>
-      <c r="J5" s="1">
-        <v>45547</v>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
       </c>
       <c r="I6" s="1">
         <v>45539</v>
       </c>
-      <c r="J6" s="1">
-        <v>45547</v>
+      <c r="J6">
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ERP/src/main/resources/static/csv/주문등록(서식).xlsx
+++ b/ERP/src/main/resources/static/csv/주문등록(서식).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\ERP\ERP\src\main\resources\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4EB91-E657-4C8F-A493-941802E29F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7B2DE1-0463-4837-888A-60F69E3FC511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B1E78168-0BFB-44FC-B684-775662FCF419}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1E78168-0BFB-44FC-B684-775662FCF419}"/>
   </bookViews>
   <sheets>
     <sheet name="주문등록(서식)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>수취인</t>
   </si>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>관리자메모</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 배송 독촉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 직접 물류센터 방문 픽업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -144,6 +152,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -730,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +752,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,7 +1135,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1132,9 +1146,9 @@
     <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
     <col min="11" max="11" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1203,11 +1217,14 @@
       <c r="I2" s="1">
         <v>45539</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1238,7 +1255,7 @@
       <c r="I3" s="1">
         <v>45539</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>1</v>
       </c>
       <c r="K3" t="s">
@@ -1273,7 +1290,7 @@
       <c r="I4" s="1">
         <v>45539</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
@@ -1308,7 +1325,7 @@
       <c r="I5" s="1">
         <v>45539</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" t="s">
@@ -1343,11 +1360,14 @@
       <c r="I6" s="1">
         <v>45539</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ERP/src/main/resources/static/csv/주문등록(서식).xlsx
+++ b/ERP/src/main/resources/static/csv/주문등록(서식).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\ERP\ERP\src\main\resources\static\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7B2DE1-0463-4837-888A-60F69E3FC511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D8D4D7-81F1-4588-AA3F-507A1ED43969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1E78168-0BFB-44FC-B684-775662FCF419}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>수취인</t>
   </si>
@@ -52,86 +52,36 @@
     <t>주문자 메모</t>
   </si>
   <si>
-    <t>홍길동</t>
-  </si>
-  <si>
-    <t>hong@koala.com</t>
-  </si>
-  <si>
-    <t>서울특별시 신촌로32</t>
-  </si>
-  <si>
-    <t>중앙정보처리학원 402호</t>
-  </si>
-  <si>
     <t>P0000001</t>
   </si>
   <si>
     <t>여행용 반팔 미니 크로스백</t>
   </si>
   <si>
-    <t>부재 시 경비실에 맡겨주세요</t>
-  </si>
-  <si>
-    <t>서울특별시 신촌로33</t>
-  </si>
-  <si>
-    <t>중앙정보처리학원 403호</t>
-  </si>
-  <si>
     <t>P0000004</t>
   </si>
   <si>
     <t>싱생아 싱크대 접이식 아기욕조</t>
   </si>
   <si>
-    <t>서울특별시 신촌로34</t>
-  </si>
-  <si>
-    <t>중앙정보처리학원 404호</t>
-  </si>
-  <si>
     <t>P0000013</t>
   </si>
   <si>
     <t>스테레오 1ST-2RCA 케이블 1.5m</t>
   </si>
   <si>
-    <t>서울특별시 신촌로35</t>
-  </si>
-  <si>
-    <t>중앙정보처리학원 405호</t>
-  </si>
-  <si>
     <t>P0000022</t>
   </si>
   <si>
     <t>이엔비 반려동물 강아지 고양이 쿨매트 여름 방석, 블루, 1개</t>
   </si>
   <si>
-    <t>서울특별시 신촌로36</t>
-  </si>
-  <si>
-    <t>중앙정보처리학원 406호</t>
-  </si>
-  <si>
     <t>P0000023</t>
   </si>
   <si>
     <t>뉴트리원 루테인 지아잔틴 164, 50정</t>
   </si>
   <si>
-    <t>01012341234</t>
-  </si>
-  <si>
-    <t>01012341234</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>04064</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>주문갯수</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -140,11 +90,91 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>구매자 배송 독촉</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자 직접 물류센터 방문 픽업</t>
+    <t>서울시 마포구</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 영등포구</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01045478956</t>
+  </si>
+  <si>
+    <t>01045478956</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderer@naver.com</t>
+  </si>
+  <si>
+    <t>orderer@naver.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취</t>
+  </si>
+  <si>
+    <t>수취</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01041474845</t>
+  </si>
+  <si>
+    <t>01041474845</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive@gmail.com</t>
+  </si>
+  <si>
+    <t>receive@gmail.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>04754</t>
+  </si>
+  <si>
+    <t>04754</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01826</t>
+  </si>
+  <si>
+    <t>01826</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한곳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취받을곳</t>
+  </si>
+  <si>
+    <t>수취받을곳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부재시 가지세요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발 부재여라</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인입니다</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -741,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,7 +784,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,20 +1168,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BDE760-8C40-4800-ACE2-BCEF5AF4A8F5}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
     <col min="11" max="11" width="27.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.75" customWidth="1"/>
@@ -1161,7 +1198,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1180,195 +1217,401 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="1">
-        <v>45539</v>
+        <v>45556.723749999997</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1">
-        <v>45539</v>
+        <v>45556.723749999997</v>
       </c>
       <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
         <v>22</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1">
-        <v>45539</v>
+        <v>45556.723749999997</v>
       </c>
       <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1">
-        <v>45539</v>
+        <v>45556.723749999997</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45556.723749999997</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I7" s="1">
+        <v>45556.723611111112</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="1">
-        <v>45539</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45556.723611111112</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45556.723611111112</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45556.723611111112</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45556.723611111112</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
